--- a/Tables/Supp Table 9 - MultipleElementHPOGenes.xlsx
+++ b/Tables/Supp Table 9 - MultipleElementHPOGenes.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\CamocoManuscript\SuppTables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\VBOXSVR\rob\Documents\CamocoManuscript\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22545" windowHeight="7710"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22550" windowHeight="7710"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="48">
   <si>
     <t>num_common</t>
   </si>
@@ -160,13 +160,38 @@
   </si>
   <si>
     <t>Common genes IDs</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Multiple element HPO gene list</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+The number of commonly discovered HPO genes, hypergeometric p-values of set overlap, and GRMZM IDs across multiple elements.
+</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -179,6 +204,14 @@
       <sz val="11"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -188,7 +221,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -211,11 +244,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -228,6 +270,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -531,378 +577,372 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.81640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="229.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="229.1796875" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2">
         <v>14</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D3" s="2">
         <v>4.4839852765359151E-13</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E3" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="C3" s="2">
-        <v>1</v>
-      </c>
-      <c r="D3" s="2">
-        <v>5.319714632752863E-2</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>7</v>
       </c>
       <c r="C4" s="2">
         <v>1</v>
       </c>
       <c r="D4" s="2">
+        <v>5.319714632752863E-2</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2">
         <v>0.1117431121131033</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E5" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="2" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="2">
-        <v>2</v>
-      </c>
-      <c r="D5" s="2">
+      <c r="C6" s="2">
+        <v>2</v>
+      </c>
+      <c r="D6" s="2">
         <v>5.596682070102872E-4</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E6" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="2" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="2">
-        <v>3</v>
-      </c>
-      <c r="D6" s="2">
+      <c r="C7" s="2">
+        <v>3</v>
+      </c>
+      <c r="D7" s="2">
         <v>1.20955388072457E-2</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E7" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="2" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C8" s="2">
         <v>1</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D8" s="2">
         <v>0.20027395775324039</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E8" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="2">
-        <v>2</v>
-      </c>
-      <c r="D8" s="2">
-        <v>5.6382376445776698E-2</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="2">
+        <v>2</v>
+      </c>
+      <c r="D9" s="2">
+        <v>5.6382376445776698E-2</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C10" s="2">
         <v>4</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D10" s="2">
         <v>3.887405613643281E-5</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E10" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="2" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C11" s="2">
         <v>6</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D11" s="2">
         <v>1.1567504296866E-6</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E11" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B11" s="2" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="2">
-        <v>2</v>
-      </c>
-      <c r="D11" s="2">
+      <c r="C12" s="2">
+        <v>2</v>
+      </c>
+      <c r="D12" s="2">
         <v>1.1360231717716119E-2</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E12" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B12" s="2" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="2">
-        <v>3</v>
-      </c>
-      <c r="D12" s="2">
+      <c r="C13" s="2">
+        <v>3</v>
+      </c>
+      <c r="D13" s="2">
         <v>1.5150791469343331E-3</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E13" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B13" s="2" t="s">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="C13" s="2">
-        <v>4</v>
-      </c>
-      <c r="D13" s="2">
-        <v>4.1082276471886731E-4</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>9</v>
       </c>
       <c r="C14" s="2">
         <v>4</v>
       </c>
       <c r="D14" s="2">
+        <v>4.1082276471886731E-4</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="2">
+        <v>4</v>
+      </c>
+      <c r="D15" s="2">
         <v>2.3365439737171262E-6</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E15" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B15" s="2" t="s">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C16" s="2">
         <v>1</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D16" s="2">
         <v>0.51412448791047693</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E16" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="2" t="s">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C17" s="2">
         <v>12</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D17" s="2">
         <v>2.1382836137709949E-8</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E17" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B17" s="2" t="s">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C18" s="2">
         <v>9</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D18" s="2">
         <v>1.200101101371632E-7</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="E18" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B18" s="2" t="s">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="2">
-        <v>3</v>
-      </c>
-      <c r="D18" s="2">
+      <c r="C19" s="2">
+        <v>3</v>
+      </c>
+      <c r="D19" s="2">
         <v>2.9782341871437822E-2</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="E19" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C19" s="2">
-        <v>1</v>
-      </c>
-      <c r="D19" s="2">
-        <v>2.872355355381084E-2</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C20" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D20" s="2">
-        <v>4.6933122171005266E-3</v>
+        <v>2.872355355381084E-2</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C21" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D21" s="2">
-        <v>4.640870577107347E-2</v>
+        <v>4.6933122171005266E-3</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>28</v>
@@ -911,66 +951,66 @@
         <v>1</v>
       </c>
       <c r="D22" s="2">
+        <v>4.640870577107347E-2</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" s="2">
+        <v>1</v>
+      </c>
+      <c r="D23" s="2">
         <v>6.5114551372982721E-2</v>
       </c>
-      <c r="E22" s="4" t="s">
+      <c r="E23" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C23" s="2">
-        <v>3</v>
-      </c>
-      <c r="D23" s="2">
-        <v>7.4372223592743898E-4</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B24" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="2">
+        <v>3</v>
+      </c>
+      <c r="D24" s="2">
+        <v>7.4372223592743898E-4</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A25" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C24" s="2">
-        <v>2</v>
-      </c>
-      <c r="D24" s="2">
+      <c r="C25" s="2">
+        <v>2</v>
+      </c>
+      <c r="D25" s="2">
         <v>4.6933122171005266E-3</v>
       </c>
-      <c r="E24" s="4" t="s">
+      <c r="E25" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A26" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C25" s="2">
-        <v>1</v>
-      </c>
-      <c r="D25" s="2">
-        <v>1.3780267112875281E-2</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>9</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>11</v>
@@ -979,64 +1019,85 @@
         <v>1</v>
       </c>
       <c r="D26" s="2">
+        <v>1.3780267112875281E-2</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A27" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" s="2">
+        <v>1</v>
+      </c>
+      <c r="D27" s="2">
         <v>5.4002536849622348E-2</v>
       </c>
-      <c r="E26" s="4" t="s">
+      <c r="E27" s="4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A28" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B28" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C27" s="2">
-        <v>2</v>
-      </c>
-      <c r="D27" s="2">
+      <c r="C28" s="2">
+        <v>2</v>
+      </c>
+      <c r="D28" s="2">
         <v>1.69865549695646E-3</v>
       </c>
-      <c r="E27" s="4" t="s">
+      <c r="E28" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C28" s="2">
-        <v>2</v>
-      </c>
-      <c r="D28" s="2">
-        <v>6.4691373593098886E-2</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B29" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C29" s="2">
+        <v>2</v>
+      </c>
+      <c r="D29" s="2">
+        <v>6.4691373593098886E-2</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A30" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C29" s="2">
-        <v>3</v>
-      </c>
-      <c r="D29" s="2">
+      <c r="C30" s="2">
+        <v>3</v>
+      </c>
+      <c r="D30" s="2">
         <v>4.6975617185022753E-3</v>
       </c>
-      <c r="E29" s="4" t="s">
+      <c r="E30" s="4" t="s">
         <v>43</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Tables/Supp Table 9 - MultipleElementHPOGenes.xlsx
+++ b/Tables/Supp Table 9 - MultipleElementHPOGenes.xlsx
@@ -9,12 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22550" windowHeight="7710"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="6525" windowHeight="7710"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -257,7 +257,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -271,9 +271,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -580,27 +583,27 @@
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="229.1796875" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="229.140625" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>44</v>
       </c>
@@ -617,7 +620,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -627,14 +630,14 @@
       <c r="C3" s="2">
         <v>14</v>
       </c>
-      <c r="D3" s="2">
-        <v>4.4839852765359151E-13</v>
+      <c r="D3" s="7">
+        <v>4.4800000000000001E-13</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -644,14 +647,14 @@
       <c r="C4" s="2">
         <v>1</v>
       </c>
-      <c r="D4" s="2">
-        <v>5.319714632752863E-2</v>
+      <c r="D4" s="7">
+        <v>5.3199999999999997E-2</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
@@ -661,14 +664,14 @@
       <c r="C5" s="2">
         <v>1</v>
       </c>
-      <c r="D5" s="2">
-        <v>0.1117431121131033</v>
+      <c r="D5" s="7">
+        <v>0.112</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>2</v>
       </c>
@@ -678,14 +681,14 @@
       <c r="C6" s="2">
         <v>2</v>
       </c>
-      <c r="D6" s="2">
-        <v>5.596682070102872E-4</v>
+      <c r="D6" s="7">
+        <v>5.5999999999999995E-4</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>2</v>
       </c>
@@ -695,14 +698,14 @@
       <c r="C7" s="2">
         <v>3</v>
       </c>
-      <c r="D7" s="2">
-        <v>1.20955388072457E-2</v>
+      <c r="D7" s="7">
+        <v>1.21E-2</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>2</v>
       </c>
@@ -712,14 +715,14 @@
       <c r="C8" s="2">
         <v>1</v>
       </c>
-      <c r="D8" s="2">
-        <v>0.20027395775324039</v>
+      <c r="D8" s="7">
+        <v>0.2</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>15</v>
       </c>
@@ -729,14 +732,14 @@
       <c r="C9" s="2">
         <v>2</v>
       </c>
-      <c r="D9" s="2">
-        <v>5.6382376445776698E-2</v>
+      <c r="D9" s="7">
+        <v>5.6399999999999999E-2</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>15</v>
       </c>
@@ -746,14 +749,14 @@
       <c r="C10" s="2">
         <v>4</v>
       </c>
-      <c r="D10" s="2">
-        <v>3.887405613643281E-5</v>
+      <c r="D10" s="7">
+        <v>3.8899999999999997E-5</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>3</v>
       </c>
@@ -763,14 +766,14 @@
       <c r="C11" s="2">
         <v>6</v>
       </c>
-      <c r="D11" s="2">
-        <v>1.1567504296866E-6</v>
+      <c r="D11" s="7">
+        <v>1.1599999999999999E-6</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>3</v>
       </c>
@@ -780,14 +783,14 @@
       <c r="C12" s="2">
         <v>2</v>
       </c>
-      <c r="D12" s="2">
-        <v>1.1360231717716119E-2</v>
+      <c r="D12" s="7">
+        <v>1.14E-2</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>3</v>
       </c>
@@ -797,14 +800,14 @@
       <c r="C13" s="2">
         <v>3</v>
       </c>
-      <c r="D13" s="2">
-        <v>1.5150791469343331E-3</v>
+      <c r="D13" s="7">
+        <v>1.5200000000000001E-3</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>3</v>
       </c>
@@ -814,14 +817,14 @@
       <c r="C14" s="2">
         <v>4</v>
       </c>
-      <c r="D14" s="2">
-        <v>4.1082276471886731E-4</v>
+      <c r="D14" s="7">
+        <v>4.1100000000000002E-4</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>3</v>
       </c>
@@ -831,14 +834,14 @@
       <c r="C15" s="2">
         <v>4</v>
       </c>
-      <c r="D15" s="2">
-        <v>2.3365439737171262E-6</v>
+      <c r="D15" s="7">
+        <v>2.34E-6</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>3</v>
       </c>
@@ -848,14 +851,14 @@
       <c r="C16" s="2">
         <v>1</v>
       </c>
-      <c r="D16" s="2">
-        <v>0.51412448791047693</v>
+      <c r="D16" s="7">
+        <v>0.51400000000000001</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>3</v>
       </c>
@@ -865,14 +868,14 @@
       <c r="C17" s="2">
         <v>12</v>
       </c>
-      <c r="D17" s="2">
-        <v>2.1382836137709949E-8</v>
+      <c r="D17" s="7">
+        <v>2.14E-8</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>3</v>
       </c>
@@ -882,14 +885,14 @@
       <c r="C18" s="2">
         <v>9</v>
       </c>
-      <c r="D18" s="2">
-        <v>1.200101101371632E-7</v>
+      <c r="D18" s="7">
+        <v>1.1999999999999999E-7</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>3</v>
       </c>
@@ -899,14 +902,14 @@
       <c r="C19" s="2">
         <v>3</v>
       </c>
-      <c r="D19" s="2">
-        <v>2.9782341871437822E-2</v>
+      <c r="D19" s="7">
+        <v>2.98E-2</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>18</v>
       </c>
@@ -916,14 +919,14 @@
       <c r="C20" s="2">
         <v>1</v>
       </c>
-      <c r="D20" s="2">
-        <v>2.872355355381084E-2</v>
+      <c r="D20" s="7">
+        <v>2.87E-2</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>18</v>
       </c>
@@ -933,14 +936,14 @@
       <c r="C21" s="2">
         <v>2</v>
       </c>
-      <c r="D21" s="2">
-        <v>4.6933122171005266E-3</v>
+      <c r="D21" s="7">
+        <v>4.6899999999999997E-3</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>5</v>
       </c>
@@ -950,14 +953,14 @@
       <c r="C22" s="2">
         <v>1</v>
       </c>
-      <c r="D22" s="2">
-        <v>4.640870577107347E-2</v>
+      <c r="D22" s="7">
+        <v>4.6399999999999997E-2</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>21</v>
       </c>
@@ -967,14 +970,14 @@
       <c r="C23" s="2">
         <v>1</v>
       </c>
-      <c r="D23" s="2">
-        <v>6.5114551372982721E-2</v>
+      <c r="D23" s="7">
+        <v>6.5100000000000005E-2</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>7</v>
       </c>
@@ -984,14 +987,14 @@
       <c r="C24" s="2">
         <v>3</v>
       </c>
-      <c r="D24" s="2">
-        <v>7.4372223592743898E-4</v>
+      <c r="D24" s="7">
+        <v>7.4399999999999998E-4</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>7</v>
       </c>
@@ -1001,14 +1004,14 @@
       <c r="C25" s="2">
         <v>2</v>
       </c>
-      <c r="D25" s="2">
-        <v>4.6933122171005266E-3</v>
+      <c r="D25" s="7">
+        <v>4.6899999999999997E-3</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>37</v>
       </c>
@@ -1018,14 +1021,14 @@
       <c r="C26" s="2">
         <v>1</v>
       </c>
-      <c r="D26" s="2">
-        <v>1.3780267112875281E-2</v>
+      <c r="D26" s="7">
+        <v>1.38E-2</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>9</v>
       </c>
@@ -1035,14 +1038,14 @@
       <c r="C27" s="2">
         <v>1</v>
       </c>
-      <c r="D27" s="2">
-        <v>5.4002536849622348E-2</v>
+      <c r="D27" s="7">
+        <v>5.3999999999999999E-2</v>
       </c>
       <c r="E27" s="4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>40</v>
       </c>
@@ -1052,14 +1055,14 @@
       <c r="C28" s="2">
         <v>2</v>
       </c>
-      <c r="D28" s="2">
-        <v>1.69865549695646E-3</v>
+      <c r="D28" s="7">
+        <v>1.6999999999999999E-3</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>11</v>
       </c>
@@ -1069,14 +1072,14 @@
       <c r="C29" s="2">
         <v>2</v>
       </c>
-      <c r="D29" s="2">
-        <v>6.4691373593098886E-2</v>
+      <c r="D29" s="7">
+        <v>6.4699999999999994E-2</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>11</v>
       </c>
@@ -1086,8 +1089,8 @@
       <c r="C30" s="2">
         <v>3</v>
       </c>
-      <c r="D30" s="2">
-        <v>4.6975617185022753E-3</v>
+      <c r="D30" s="7">
+        <v>4.7000000000000002E-3</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>43</v>

--- a/Tables/Supp Table 9 - MultipleElementHPOGenes.xlsx
+++ b/Tables/Supp Table 9 - MultipleElementHPOGenes.xlsx
@@ -171,7 +171,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Multiple element HPO gene list</t>
+      <t>Multiple element HPO gene list.</t>
     </r>
     <r>
       <rPr>
@@ -181,8 +181,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">
-The number of commonly discovered HPO genes, hypergeometric p-values of set overlap, and GRMZM IDs across multiple elements.
+      <t xml:space="preserve"> The number of commonly discovered HPO genes, hypergeometric p-values of set overlap, and GRMZM IDs across multiple elements. Supports Figure 6.
 </t>
     </r>
   </si>
@@ -271,13 +270,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -583,7 +582,7 @@
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -595,13 +594,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -630,7 +629,7 @@
       <c r="C3" s="2">
         <v>14</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="5">
         <v>4.4800000000000001E-13</v>
       </c>
       <c r="E3" s="4" t="s">
@@ -647,7 +646,7 @@
       <c r="C4" s="2">
         <v>1</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="5">
         <v>5.3199999999999997E-2</v>
       </c>
       <c r="E4" s="4" t="s">
@@ -664,7 +663,7 @@
       <c r="C5" s="2">
         <v>1</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="5">
         <v>0.112</v>
       </c>
       <c r="E5" s="4" t="s">
@@ -681,7 +680,7 @@
       <c r="C6" s="2">
         <v>2</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="5">
         <v>5.5999999999999995E-4</v>
       </c>
       <c r="E6" s="4" t="s">
@@ -698,7 +697,7 @@
       <c r="C7" s="2">
         <v>3</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="5">
         <v>1.21E-2</v>
       </c>
       <c r="E7" s="4" t="s">
@@ -715,7 +714,7 @@
       <c r="C8" s="2">
         <v>1</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="5">
         <v>0.2</v>
       </c>
       <c r="E8" s="4" t="s">
@@ -732,7 +731,7 @@
       <c r="C9" s="2">
         <v>2</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="5">
         <v>5.6399999999999999E-2</v>
       </c>
       <c r="E9" s="4" t="s">
@@ -749,7 +748,7 @@
       <c r="C10" s="2">
         <v>4</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="5">
         <v>3.8899999999999997E-5</v>
       </c>
       <c r="E10" s="4" t="s">
@@ -766,7 +765,7 @@
       <c r="C11" s="2">
         <v>6</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="5">
         <v>1.1599999999999999E-6</v>
       </c>
       <c r="E11" s="4" t="s">
@@ -783,7 +782,7 @@
       <c r="C12" s="2">
         <v>2</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="5">
         <v>1.14E-2</v>
       </c>
       <c r="E12" s="4" t="s">
@@ -800,7 +799,7 @@
       <c r="C13" s="2">
         <v>3</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="5">
         <v>1.5200000000000001E-3</v>
       </c>
       <c r="E13" s="4" t="s">
@@ -817,7 +816,7 @@
       <c r="C14" s="2">
         <v>4</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14" s="5">
         <v>4.1100000000000002E-4</v>
       </c>
       <c r="E14" s="4" t="s">
@@ -834,7 +833,7 @@
       <c r="C15" s="2">
         <v>4</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D15" s="5">
         <v>2.34E-6</v>
       </c>
       <c r="E15" s="4" t="s">
@@ -851,7 +850,7 @@
       <c r="C16" s="2">
         <v>1</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D16" s="5">
         <v>0.51400000000000001</v>
       </c>
       <c r="E16" s="4" t="s">
@@ -868,7 +867,7 @@
       <c r="C17" s="2">
         <v>12</v>
       </c>
-      <c r="D17" s="7">
+      <c r="D17" s="5">
         <v>2.14E-8</v>
       </c>
       <c r="E17" s="4" t="s">
@@ -885,7 +884,7 @@
       <c r="C18" s="2">
         <v>9</v>
       </c>
-      <c r="D18" s="7">
+      <c r="D18" s="5">
         <v>1.1999999999999999E-7</v>
       </c>
       <c r="E18" s="4" t="s">
@@ -902,7 +901,7 @@
       <c r="C19" s="2">
         <v>3</v>
       </c>
-      <c r="D19" s="7">
+      <c r="D19" s="5">
         <v>2.98E-2</v>
       </c>
       <c r="E19" s="4" t="s">
@@ -919,7 +918,7 @@
       <c r="C20" s="2">
         <v>1</v>
       </c>
-      <c r="D20" s="7">
+      <c r="D20" s="5">
         <v>2.87E-2</v>
       </c>
       <c r="E20" s="4" t="s">
@@ -936,7 +935,7 @@
       <c r="C21" s="2">
         <v>2</v>
       </c>
-      <c r="D21" s="7">
+      <c r="D21" s="5">
         <v>4.6899999999999997E-3</v>
       </c>
       <c r="E21" s="4" t="s">
@@ -953,7 +952,7 @@
       <c r="C22" s="2">
         <v>1</v>
       </c>
-      <c r="D22" s="7">
+      <c r="D22" s="5">
         <v>4.6399999999999997E-2</v>
       </c>
       <c r="E22" s="4" t="s">
@@ -970,7 +969,7 @@
       <c r="C23" s="2">
         <v>1</v>
       </c>
-      <c r="D23" s="7">
+      <c r="D23" s="5">
         <v>6.5100000000000005E-2</v>
       </c>
       <c r="E23" s="4" t="s">
@@ -987,7 +986,7 @@
       <c r="C24" s="2">
         <v>3</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D24" s="5">
         <v>7.4399999999999998E-4</v>
       </c>
       <c r="E24" s="4" t="s">
@@ -1004,7 +1003,7 @@
       <c r="C25" s="2">
         <v>2</v>
       </c>
-      <c r="D25" s="7">
+      <c r="D25" s="5">
         <v>4.6899999999999997E-3</v>
       </c>
       <c r="E25" s="4" t="s">
@@ -1021,7 +1020,7 @@
       <c r="C26" s="2">
         <v>1</v>
       </c>
-      <c r="D26" s="7">
+      <c r="D26" s="5">
         <v>1.38E-2</v>
       </c>
       <c r="E26" s="4" t="s">
@@ -1038,7 +1037,7 @@
       <c r="C27" s="2">
         <v>1</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D27" s="5">
         <v>5.3999999999999999E-2</v>
       </c>
       <c r="E27" s="4" t="s">
@@ -1055,7 +1054,7 @@
       <c r="C28" s="2">
         <v>2</v>
       </c>
-      <c r="D28" s="7">
+      <c r="D28" s="5">
         <v>1.6999999999999999E-3</v>
       </c>
       <c r="E28" s="4" t="s">
@@ -1072,7 +1071,7 @@
       <c r="C29" s="2">
         <v>2</v>
       </c>
-      <c r="D29" s="7">
+      <c r="D29" s="5">
         <v>6.4699999999999994E-2</v>
       </c>
       <c r="E29" s="4" t="s">
@@ -1089,7 +1088,7 @@
       <c r="C30" s="2">
         <v>3</v>
       </c>
-      <c r="D30" s="7">
+      <c r="D30" s="5">
         <v>4.7000000000000002E-3</v>
       </c>
       <c r="E30" s="4" t="s">
